--- a/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -394,9 +394,6 @@
     <t>2152543394TH</t>
   </si>
   <si>
-    <t>CE BCRD10</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
@@ -404,6 +401,24 @@
   </si>
   <si>
     <t>North America-test</t>
+  </si>
+  <si>
+    <t>7464550422</t>
+  </si>
+  <si>
+    <t>8782888258</t>
+  </si>
+  <si>
+    <t>0042137998</t>
+  </si>
+  <si>
+    <t>5255161574</t>
+  </si>
+  <si>
+    <t>1874112395</t>
+  </si>
+  <si>
+    <t>7047790263</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -443,6 +458,26 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -504,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -540,9 +575,6 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -848,76 +880,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BO1" sqref="BO1"/>
+      <selection pane="bottomLeft" activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="18" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="1" customWidth="1"/>
-    <col min="71" max="73" width="23.5" style="1" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="51.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="39.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="41.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="18" width="26.83203125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="18" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="18" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="18" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="17" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="1" width="22.33203125" collapsed="true"/>
+    <col min="71" max="73" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="12.75" x14ac:dyDescent="0.15">
@@ -1214,8 +1246,8 @@
       <c r="R2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="11">
-        <v>2152543394</v>
+      <c r="S2" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>113</v>
@@ -1263,16 +1295,16 @@
         <v>92</v>
       </c>
       <c r="AK2" s="11"/>
-      <c r="AL2" s="13">
-        <v>-948.48</v>
-      </c>
-      <c r="AM2" s="13">
+      <c r="AL2" s="12">
+        <v>-948</v>
+      </c>
+      <c r="AM2" s="12">
         <v>-1248</v>
       </c>
-      <c r="AN2" s="13">
-        <v>-948.48</v>
-      </c>
-      <c r="AO2" s="13">
+      <c r="AN2" s="12">
+        <v>-948</v>
+      </c>
+      <c r="AO2" s="12">
         <v>-1248</v>
       </c>
       <c r="AP2" s="11">
@@ -1284,91 +1316,91 @@
       <c r="AR2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="15">
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="14">
         <v>42475</v>
       </c>
-      <c r="AU2" s="15">
+      <c r="AU2" s="14">
         <v>42839</v>
       </c>
-      <c r="AV2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" s="16">
+      <c r="AV2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" s="15">
         <v>104482979996</v>
       </c>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="14" t="s">
+      <c r="AX2" s="15"/>
+      <c r="AY2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BB2" s="14">
+      <c r="BB2" s="13">
         <v>364</v>
       </c>
-      <c r="BC2" s="14">
+      <c r="BC2" s="13">
         <v>12</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="16">
+        <v>948.48</v>
+      </c>
+      <c r="BM2" s="16">
+        <v>948.48</v>
+      </c>
+      <c r="BN2" s="17">
+        <v>38.978630136986311</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK2" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL2" s="17">
-        <v>948.48</v>
-      </c>
-      <c r="BM2" s="17">
-        <v>948.48</v>
-      </c>
-      <c r="BN2" s="18">
-        <v>38.978630136986311</v>
-      </c>
-      <c r="BO2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="BP2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="BQ2" s="14" t="s">
+      <c r="BQ2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="BR2" s="14" t="s">
+      <c r="BR2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="BS2" s="14" t="s">
+      <c r="BS2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="BT2" s="14" t="s">
+      <c r="BT2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="BU2" s="14" t="s">
+      <c r="BU2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="BV2" s="14"/>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
+      <c r="BV2" s="13"/>
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13"/>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1425,8 +1457,8 @@
       <c r="R3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="11">
-        <v>2152543394</v>
+      <c r="S3" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>113</v>
@@ -1470,16 +1502,16 @@
       <c r="AJ3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="AL3" s="12">
         <v>900</v>
       </c>
-      <c r="AM3" s="19">
+      <c r="AM3" s="12">
         <v>1200</v>
       </c>
-      <c r="AN3" s="19">
+      <c r="AN3" s="12">
         <v>900</v>
       </c>
-      <c r="AO3" s="19">
+      <c r="AO3" s="12">
         <v>1200</v>
       </c>
       <c r="AP3" s="1">
@@ -1491,19 +1523,19 @@
       <c r="AR3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="14">
         <v>42475</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="14">
         <v>42839</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="16">
+        <v>129</v>
+      </c>
+      <c r="AW3" s="15">
         <v>104482979996</v>
       </c>
-      <c r="AX3" s="16"/>
+      <c r="AX3" s="15"/>
       <c r="AY3" s="1" t="s">
         <v>118</v>
       </c>
@@ -1519,8 +1551,8 @@
       <c r="BC3" s="1">
         <v>12</v>
       </c>
-      <c r="BD3" s="14" t="s">
-        <v>123</v>
+      <c r="BD3" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>95</v>
@@ -1537,20 +1569,20 @@
       <c r="BK3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL3" s="18">
+      <c r="BL3" s="17">
         <v>948.48</v>
       </c>
-      <c r="BM3" s="18">
+      <c r="BM3" s="17">
         <v>948.48</v>
       </c>
-      <c r="BN3" s="18">
+      <c r="BN3" s="17">
         <v>38.978630136986311</v>
       </c>
       <c r="BO3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BP3" s="14" t="s">
-        <v>124</v>
+      <c r="BP3" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>80</v>
@@ -1570,12 +1602,13 @@
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.15">
       <c r="AW8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:CA2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>7047790263</t>
+  </si>
+  <si>
+    <t>8601830200</t>
+  </si>
+  <si>
+    <t>1856583690</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -458,6 +464,16 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1247,7 +1263,7 @@
         <v>112</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>113</v>
@@ -1324,7 +1340,7 @@
         <v>42839</v>
       </c>
       <c r="AV2" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AW2" s="15">
         <v>104482979996</v>
@@ -1458,7 +1474,7 @@
         <v>112</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>113</v>
@@ -1530,7 +1546,7 @@
         <v>42839</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AW3" s="15">
         <v>104482979996</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_FalloutCheck_NegativeOrder.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>1856583690</t>
+  </si>
+  <si>
+    <t>7784415640</t>
+  </si>
+  <si>
+    <t>6059856813</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -464,6 +470,16 @@
       <color rgb="FFFF0000"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1263,7 +1279,7 @@
         <v>112</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>113</v>
@@ -1340,7 +1356,7 @@
         <v>42839</v>
       </c>
       <c r="AV2" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AW2" s="15">
         <v>104482979996</v>
@@ -1474,7 +1490,7 @@
         <v>112</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>113</v>
@@ -1546,7 +1562,7 @@
         <v>42839</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AW3" s="15">
         <v>104482979996</v>
